--- a/DSA Sheet - Trishansh.xlsx
+++ b/DSA Sheet - Trishansh.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA SHEET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB8196-4BB4-4D43-B21C-F0E3A655163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5C7C9-2393-410A-9805-C6077DF324AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Array Searching and Rotation" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -76,6 +77,27 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/peak-index-in-a-mountain-array/description/</t>
+  </si>
+  <si>
+    <t>Array Searching and Rotation Practice Questions</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/dsa/linear-search/</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/description/</t>
+  </si>
+  <si>
+    <t>Rotate Arrays</t>
+  </si>
+  <si>
+    <t>Left and Right Rotation in Arrays</t>
   </si>
 </sst>
 </file>
@@ -107,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -163,6 +191,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,4 +593,108 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63803EBD-65BB-4CB1-86D0-A17F7488F714}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{01538C9D-4F13-45AE-A864-E52FF0BF3EA5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DSA Sheet - Trishansh.xlsx
+++ b/DSA Sheet - Trishansh.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5C7C9-2393-410A-9805-C6077DF324AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6F5CE9-F1FF-45F8-961A-8B4BC76C9CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
     <sheet name="Array Searching and Rotation" sheetId="3" r:id="rId2"/>
+    <sheet name="Two Pointer - Array" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -98,6 +99,33 @@
   </si>
   <si>
     <t>Left and Right Rotation in Arrays</t>
+  </si>
+  <si>
+    <t>Two Pointer Technique (Array) Practice Questions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Sort Array By Parity ( Even-Odd partitioning)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-array-by-parity/description/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/dsa/move-negative-numbers-beginning-positive-end-constant-extra-space/</t>
+  </si>
+  <si>
+    <t>Positive - Negative Partitioning</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/submissions/1882491496/</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array is Sorted</t>
   </si>
 </sst>
 </file>
@@ -129,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -192,6 +226,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63803EBD-65BB-4CB1-86D0-A17F7488F714}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -697,4 +732,107 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AFF5C3-4FB1-4FCA-A387-86E3D53367A5}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>